--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-15.xlsx
@@ -176,6 +176,12 @@
     <t>EMEREST 8MG 4ML/3AMP</t>
   </si>
   <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>EPICEPHIN 500MG I.M. VIAL</t>
   </si>
   <si>
@@ -329,9 +335,6 @@
     <t>7733:0</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
@@ -356,13 +359,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>105:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>100:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1777,17 +1783,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1795,7 +1801,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1809,7 +1815,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1821,7 +1827,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1829,17 +1835,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1855,17 +1861,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1873,7 +1879,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1881,17 +1887,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1899,7 +1905,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1907,13 +1913,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1925,7 +1931,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1939,11 +1945,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1951,7 +1957,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1965,11 +1971,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1977,7 +1983,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1985,17 +1991,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2003,7 +2009,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2011,17 +2017,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2029,7 +2035,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2043,7 +2049,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2055,7 +2061,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2063,13 +2069,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2081,7 +2087,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2089,13 +2095,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2107,7 +2113,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2115,17 +2121,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2141,17 +2147,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2159,7 +2165,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2167,17 +2173,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2193,17 +2199,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2211,7 +2217,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2219,13 +2225,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2237,7 +2243,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2245,13 +2251,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2263,7 +2269,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2271,13 +2277,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2289,7 +2295,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2297,13 +2303,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2315,7 +2321,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2323,13 +2329,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2341,7 +2347,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2349,17 +2355,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2367,7 +2373,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2375,17 +2381,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2393,7 +2399,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2401,17 +2407,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>29</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2427,17 +2433,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2445,7 +2451,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2453,13 +2459,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2471,7 +2477,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2479,13 +2485,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2497,7 +2503,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2505,13 +2511,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2523,7 +2529,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2531,17 +2537,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2557,17 +2563,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2575,7 +2581,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2583,17 +2589,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2601,7 +2607,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2609,17 +2615,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2627,7 +2633,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2635,17 +2641,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2661,17 +2667,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2679,7 +2685,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2687,17 +2693,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2705,7 +2711,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2713,17 +2719,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2731,7 +2737,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2739,17 +2745,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2757,7 +2763,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2765,17 +2771,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2783,7 +2789,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2791,17 +2797,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2809,7 +2815,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2823,11 +2829,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2835,7 +2841,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2843,13 +2849,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2869,17 +2875,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2887,7 +2893,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2895,17 +2901,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>7.5</v>
+        <v>66</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2913,7 +2919,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2921,17 +2927,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>48</v>
+        <v>7.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2953,11 +2959,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2973,17 +2979,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3005,7 +3011,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3025,13 +3031,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3051,17 +3057,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3069,7 +3075,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3077,17 +3083,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3095,7 +3101,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3103,17 +3109,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3135,11 +3141,11 @@
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3155,7 +3161,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -3165,7 +3171,7 @@
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3173,7 +3179,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3181,13 +3187,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3199,7 +3205,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3207,17 +3213,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3225,7 +3231,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3233,17 +3239,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3259,13 +3265,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3277,7 +3283,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3285,13 +3291,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3303,7 +3309,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3311,17 +3317,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3337,17 +3343,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3355,7 +3361,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3363,51 +3369,77 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="10">
-        <v>6708.7299999999996</v>
-      </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="11">
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
         <v>132</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c t="s" r="F97" s="12">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
         <v>133</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c t="s" r="I97" s="14">
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>45</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" ht="26.25" customHeight="1">
+      <c r="K97" s="10">
+        <v>6898.7299999999996</v>
+      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="11">
         <v>134</v>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c t="s" r="F98" s="12">
+        <v>135</v>
+      </c>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+      <c t="s" r="I98" s="14">
+        <v>136</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="290">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3691,10 +3723,13 @@
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:N98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
